--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-observation-blodprove</t>
+    <t>http://oddbeard.net/fhir/ig/mal/StructureDefinition/mal-observation-blodprove</t>
   </si>
   <si>
     <t>Version</t>
@@ -69,13 +69,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Norge</t>
+    <t>oddbear</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Norge (https://www.hl7.no)</t>
+    <t>oddbear (https://oddbeard.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -356,7 +356,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -474,7 +474,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -581,13 +581,13 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://oddbeard.net/fhir/ig/mal/StructureDefinition/test-mal-patient)
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -798,7 +798,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -836,7 +836,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -857,13 +857,13 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.appliesTo</t>
@@ -1022,7 +1022,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1053,7 +1053,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1069,7 +1069,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1152,13 +1152,13 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>mal-patient</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient</t>
-  </si>
-  <si>
-    <t>MalPatient</t>
+    <t>test-mal-patient</t>
+  </si>
+  <si>
+    <t>http://oddbeard.net/fhir/ig/mal/StructureDefinition/test-mal-patient</t>
+  </si>
+  <si>
+    <t>TestMalPatient</t>
   </si>
   <si>
     <t>Pasient</t>
@@ -1167,7 +1167,7 @@
     <t>2025-01-22</t>
   </si>
   <si>
-    <t>Informasjon om pasienten, basert på no-basis.</t>
+    <t>Test Informasjon om pasienten, basert på no-basis.</t>
   </si>
   <si>
     <t>Patient</t>
@@ -1450,7 +1450,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1529,7 +1529,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2175,7 +2175,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>Patient.multipleBirth[x]</t>
@@ -2262,7 +2262,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2459,7 +2459,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2965,17 +2965,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2984,21 +2984,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -16610,7 +16610,7 @@
         <v>76</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>78</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8438" uniqueCount="1060">
   <si>
     <t>Property</t>
   </si>
@@ -2482,6 +2482,843 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>test.encounter.oddbear</t>
+  </si>
+  <si>
+    <t>http://oddbeard.net/fhir/ig/mal/StructureDefinition/test.encounter.oddbear</t>
+  </si>
+  <si>
+    <t>TestEncounter</t>
+  </si>
+  <si>
+    <t>Encounter test</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>Profil for encounter test</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit
+</t>
+  </si>
+  <si>
+    <t>An interaction during which services are provided to the patient</t>
+  </si>
+  <si>
+    <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
+  </si>
+  <si>
+    <t>Encounter.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t>Encounter.meta.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta.extension</t>
+  </si>
+  <si>
+    <t>Encounter.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Encounter.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Encounter.meta.source</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Encounter.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Encounter.meta.security</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Encounter.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t>Classification of patient encounter</t>
+  </si>
+  <si>
+    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+  </si>
+  <si>
+    <t>Classification of the encounter.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class.</t>
+  </si>
+  <si>
+    <t>Encounter.type</t>
+  </si>
+  <si>
+    <t>Specific type of encounter</t>
+  </si>
+  <si>
+    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+  </si>
+  <si>
+    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
+  </si>
+  <si>
+    <t>The type of encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.serviceType</t>
+  </si>
+  <si>
+    <t>Specific type of service</t>
+  </si>
+  <si>
+    <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
+  </si>
+  <si>
+    <t>Broad categorization of the service that is to be provided.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.priority</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+  </si>
+  <si>
+    <t>Encounter.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>The patient or group present at the encounter</t>
+  </si>
+  <si>
+    <t>The patient or group present at the encounter.</t>
+  </si>
+  <si>
+    <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Episode(s) of care that this encounter should be recorded against</t>
+  </si>
+  <si>
+    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+  </si>
+  <si>
+    <t>Encounter.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incomingReferral
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The ServiceRequest that initiated this encounter</t>
+  </si>
+  <si>
+    <t>The request this encounter satisfies (e.g. incoming referral or procedure request).</t>
+  </si>
+  <si>
+    <t>Encounter.participant</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>The list of people responsible for providing the service.</t>
+  </si>
+  <si>
+    <t>Encounter.participant.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter.</t>
+  </si>
+  <si>
+    <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.participant.period</t>
+  </si>
+  <si>
+    <t>Period of time during the encounter that the participant participated</t>
+  </si>
+  <si>
+    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient.</t>
+  </si>
+  <si>
+    <t>Encounter.appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter.</t>
+  </si>
+  <si>
+    <t>Encounter.period</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter.</t>
+  </si>
+  <si>
+    <t>If not (yet) known, the end of the Period may be omitted.</t>
+  </si>
+  <si>
+    <t>Encounter.length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted (less time absent)</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+  </si>
+  <si>
+    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode</t>
+  </si>
+  <si>
+    <t>Indication
+Admission diagnosis</t>
+  </si>
+  <si>
+    <t>Coded reason the encounter takes place</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
+    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
+  </si>
+  <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place (reference)</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter.</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition</t>
+  </si>
+  <si>
+    <t>Admission diagnosis
+discharge diagnosisindication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The diagnosis or procedure relevant to the encounter</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.use</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …)</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).</t>
+  </si>
+  <si>
+    <t>The type of diagnosis this condition represents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Ranking of the diagnosis (for each role type)</t>
+  </si>
+  <si>
+    <t>Ranking of the diagnosis (for each role type).</t>
+  </si>
+  <si>
+    <t>Encounter.account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Account|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The set of accounts that may be used for billing for this Encounter</t>
+  </si>
+  <si>
+    <t>The set of accounts that may be used for billing for this Encounter.</t>
+  </si>
+  <si>
+    <t>The billing system may choose to allocate billable items associated with the Encounter to different referenced Accounts based on internal business rules.</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization</t>
+  </si>
+  <si>
+    <t>Details about the admission to a healthcare service</t>
+  </si>
+  <si>
+    <t>Details about the admission to a healthcare service.</t>
+  </si>
+  <si>
+    <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.++The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.id</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.extension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.preAdmissionIdentifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier.</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The location/organization from which the patient came before admission</t>
+  </si>
+  <si>
+    <t>The location/organization from which the patient came before admission.</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.admitSource</t>
+  </si>
+  <si>
+    <t>From where patient was admitted (physician referral, transfer)</t>
+  </si>
+  <si>
+    <t>From where patient was admitted (physician referral, transfer).</t>
+  </si>
+  <si>
+    <t>From where the patient was admitted.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.reAdmission</t>
+  </si>
+  <si>
+    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission</t>
+  </si>
+  <si>
+    <t>Whether this hospitalization is a readmission and why if known.</t>
+  </si>
+  <si>
+    <t>The reason for re-admission of this hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.dietPreference</t>
+  </si>
+  <si>
+    <t>Diet preferences reported by the patient</t>
+  </si>
+  <si>
+    <t>Diet preferences reported by the patient.</t>
+  </si>
+  <si>
+    <t>For example, a patient may request both a dairy-free and nut-free diet preference (not mutually exclusive).</t>
+  </si>
+  <si>
+    <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
+  </si>
+  <si>
+    <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy</t>
+  </si>
+  <si>
+    <t>Special courtesies (VIP, board member)</t>
+  </si>
+  <si>
+    <t>Special courtesies (VIP, board member).</t>
+  </si>
+  <si>
+    <t>Special courtesies.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialArrangement</t>
+  </si>
+  <si>
+    <t>Wheelchair, translator, stretcher, etc.</t>
+  </si>
+  <si>
+    <t>Any special requests that have been made for this hospitalization encounter, such as the provision of specific equipment or other things.</t>
+  </si>
+  <si>
+    <t>Special arrangements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.destination</t>
+  </si>
+  <si>
+    <t>Location/organization to which the patient is discharged</t>
+  </si>
+  <si>
+    <t>Location/organization to which the patient is discharged.</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.dischargeDisposition</t>
+  </si>
+  <si>
+    <t>Category or kind of location after discharge</t>
+  </si>
+  <si>
+    <t>Category or kind of location after discharge.</t>
+  </si>
+  <si>
+    <t>Discharge Disposition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.location</t>
+  </si>
+  <si>
+    <t>List of locations where the patient has been</t>
+  </si>
+  <si>
+    <t>List of locations where  the patient has been during this encounter.</t>
+  </si>
+  <si>
+    <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
+  </si>
+  <si>
+    <t>Encounter.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.location.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Location the encounter takes place</t>
+  </si>
+  <si>
+    <t>The location where the encounter takes place.</t>
+  </si>
+  <si>
+    <t>Encounter.location.status</t>
+  </si>
+  <si>
+    <t>planned | active | reserved | completed</t>
+  </si>
+  <si>
+    <t>The status of the participants' presence at the specified location during the period specified. If the participant is no longer at the location, then the period will have an end date/time.</t>
+  </si>
+  <si>
+    <t>When the patient is no longer active at a location, then the period end date is entered, and the status may be changed to completed.</t>
+  </si>
+  <si>
+    <t>The status of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.location.physicalType</t>
+  </si>
+  <si>
+    <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.)</t>
+  </si>
+  <si>
+    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.</t>
+  </si>
+  <si>
+    <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
+There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
+  </si>
+  <si>
+    <t>Physical form of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Encounter.location.period</t>
+  </si>
+  <si>
+    <t>Time period during which the patient was present at the location</t>
+  </si>
+  <si>
+    <t>Time period during which the patient was present at the location.</t>
+  </si>
+  <si>
+    <t>Encounter.serviceProvider</t>
+  </si>
+  <si>
+    <t>The organization (facility) responsible for this encounter</t>
+  </si>
+  <si>
+    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
+  </si>
+  <si>
+    <t>Encounter.partOf</t>
+  </si>
+  <si>
+    <t>Another Encounter this encounter is part of</t>
+  </si>
+  <si>
+    <t>Another Encounter of which this encounter is a part of (administratively or in time).</t>
+  </si>
+  <si>
+    <t>This is also used for associating a child's encounter back to the mother's encounter.++Refer to the Notes section in the Patient resource for further details.</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +3452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2949,6 +3786,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2956,7 +3955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK170"/>
+  <dimension ref="A1:AK251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2967,7 +3966,7 @@
   <cols>
     <col min="1" max="1" width="22.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -2990,14 +3989,14 @@
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="48.33203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -20918,6 +21917,8451 @@
         <v>97</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R171" s="2"/>
+      <c r="S171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R172" s="2"/>
+      <c r="S172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R173" s="2"/>
+      <c r="S173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R174" s="2"/>
+      <c r="S174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O175" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R175" s="2"/>
+      <c r="S175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R176" s="2"/>
+      <c r="S176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R177" s="2"/>
+      <c r="S177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="P178" s="2"/>
+      <c r="Q178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R178" s="2"/>
+      <c r="S178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="P179" s="2"/>
+      <c r="Q179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R179" s="2"/>
+      <c r="S179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="P180" s="2"/>
+      <c r="Q180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R180" s="2"/>
+      <c r="S180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="P181" s="2"/>
+      <c r="Q181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R181" s="2"/>
+      <c r="S181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F182" s="2"/>
+      <c r="G182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="P182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R182" s="2"/>
+      <c r="S182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F183" s="2"/>
+      <c r="G183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O183" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="P183" s="2"/>
+      <c r="Q183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R183" s="2"/>
+      <c r="S183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F184" s="2"/>
+      <c r="G184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R184" s="2"/>
+      <c r="S184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F185" s="2"/>
+      <c r="G185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P185" s="2"/>
+      <c r="Q185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R185" s="2"/>
+      <c r="S185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P186" s="2"/>
+      <c r="Q186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R186" s="2"/>
+      <c r="S186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F187" s="2"/>
+      <c r="G187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P187" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R187" s="2"/>
+      <c r="S187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="D188" s="2"/>
+      <c r="E188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R188" s="2"/>
+      <c r="S188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R189" s="2"/>
+      <c r="S189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="P190" s="2"/>
+      <c r="Q190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R190" s="2"/>
+      <c r="S190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R191" s="2"/>
+      <c r="S191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P192" s="2"/>
+      <c r="Q192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R192" s="2"/>
+      <c r="S192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F193" s="2"/>
+      <c r="G193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P193" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R193" s="2"/>
+      <c r="S193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R194" s="2"/>
+      <c r="S194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="N195" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R195" s="2"/>
+      <c r="S195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R196" s="2"/>
+      <c r="S196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R197" s="2"/>
+      <c r="S197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R198" s="2"/>
+      <c r="S198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R199" s="2"/>
+      <c r="S199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R200" s="2"/>
+      <c r="S200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R201" s="2"/>
+      <c r="S201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R202" s="2"/>
+      <c r="S202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R203" s="2"/>
+      <c r="S203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R204" s="2"/>
+      <c r="S204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R205" s="2"/>
+      <c r="S205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R206" s="2"/>
+      <c r="S206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R207" s="2"/>
+      <c r="S207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="F208" s="2"/>
+      <c r="G208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R208" s="2"/>
+      <c r="S208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K209" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R209" s="2"/>
+      <c r="S209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG209" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="AH209" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ209" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK209" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R210" s="2"/>
+      <c r="S210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI210" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK210" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P211" s="2"/>
+      <c r="Q211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R211" s="2"/>
+      <c r="S211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG211" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH211" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI211" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK211" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P212" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R212" s="2"/>
+      <c r="S212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG212" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH212" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI212" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK212" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="P213" s="2"/>
+      <c r="Q213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R213" s="2"/>
+      <c r="S213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y213" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z213" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="AA213" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="AB213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG213" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="AH213" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI213" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="N214" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R214" s="2"/>
+      <c r="S214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG214" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AH214" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI214" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK214" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H215" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K215" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R215" s="2"/>
+      <c r="S215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG215" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AH215" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI215" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK215" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L216" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R216" s="2"/>
+      <c r="S216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG216" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="AH216" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI216" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ216" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK216" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H217" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R217" s="2"/>
+      <c r="S217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG217" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="AH217" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI217" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ217" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK217" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R218" s="2"/>
+      <c r="S218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG218" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="AH218" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI218" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ218" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK218" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K219" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R219" s="2"/>
+      <c r="S219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y219" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z219" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="AA219" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="AB219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG219" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="AH219" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI219" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ219" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK219" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L220" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="M220" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R220" s="2"/>
+      <c r="S220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG220" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="AH220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI220" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ220" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK220" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="D221" s="2"/>
+      <c r="E221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R221" s="2"/>
+      <c r="S221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R222" s="2"/>
+      <c r="S222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R223" s="2"/>
+      <c r="S223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R224" s="2"/>
+      <c r="S224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R225" s="2"/>
+      <c r="S225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R226" s="2"/>
+      <c r="S226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R227" s="2"/>
+      <c r="S227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R228" s="2"/>
+      <c r="S228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="P229" s="2"/>
+      <c r="Q229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R229" s="2"/>
+      <c r="S229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R230" s="2"/>
+      <c r="S230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R232" s="2"/>
+      <c r="S232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R233" s="2"/>
+      <c r="S233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R234" s="2"/>
+      <c r="S234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R235" s="2"/>
+      <c r="S235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R236" s="2"/>
+      <c r="S236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Q237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R237" s="2"/>
+      <c r="S237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>1010</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R238" s="2"/>
+      <c r="S238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK238" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="N239" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R239" s="2"/>
+      <c r="S239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK239" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R240" s="2"/>
+      <c r="S240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R241" s="2"/>
+      <c r="S241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="P242" s="2"/>
+      <c r="Q242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R242" s="2"/>
+      <c r="S242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R243" s="2"/>
+      <c r="S243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O244" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P244" s="2"/>
+      <c r="Q244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R244" s="2"/>
+      <c r="S244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Q245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R245" s="2"/>
+      <c r="S245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK245" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R246" s="2"/>
+      <c r="S246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK246" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="O247" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="P247" s="2"/>
+      <c r="Q247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R247" s="2"/>
+      <c r="S247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG247" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="AH247" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI247" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK247" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F248" s="2"/>
+      <c r="G248" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="N248" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="O248" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="P248" s="2"/>
+      <c r="Q248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R248" s="2"/>
+      <c r="S248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG248" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="AH248" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI248" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ248" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK248" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R249" s="2"/>
+      <c r="S249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG249" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AH249" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI249" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ249" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK249" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F250" s="2"/>
+      <c r="G250" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R250" s="2"/>
+      <c r="S250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG250" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AH250" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI250" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ250" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK250" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L251" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="N251" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="O251" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="P251" s="2"/>
+      <c r="Q251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R251" s="2"/>
+      <c r="S251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG251" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="AH251" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI251" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ251" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK251" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
